--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FECHA</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>Preparacion estrcutra proyectos, diseño de interfaces</t>
+  </si>
+  <si>
+    <t>29/1072015</t>
+  </si>
+  <si>
+    <t>Interfcaces, muestra y busquedas de clientes</t>
   </si>
 </sst>
 </file>
@@ -375,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,6 +416,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -30,10 +30,10 @@
     <t>Preparacion estrcutra proyectos, diseño de interfaces</t>
   </si>
   <si>
-    <t>29/1072015</t>
-  </si>
-  <si>
     <t>Interfcaces, muestra y busquedas de clientes</t>
+  </si>
+  <si>
+    <t>registracion de usuario sin validaciones</t>
   </si>
 </sst>
 </file>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +417,24 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="2">
+        <v>42306</v>
       </c>
       <c r="B3" s="3">
         <v>0.125</v>
       </c>
       <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>42310</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Clientes" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FECHA</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>registracion de usuario sin validaciones</t>
+  </si>
+  <si>
+    <t>Eliminacion de Cliente, principio de edicion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,6 +444,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>42311</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <f>SUM(B2:B5)</f>
+        <v>0.30208333333333337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas.xlsx
+++ b/Horas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FECHA</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>Edicion de cliente, Informe Clientes basico dos campos</t>
+  </si>
+  <si>
+    <t>importe</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +406,7 @@
     <col min="3" max="3" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42305</v>
       </c>
@@ -422,7 +428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42306</v>
       </c>
@@ -433,7 +439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42310</v>
       </c>
@@ -444,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42311</v>
       </c>
@@ -455,14 +461,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>42313</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.3449074074074078E-2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
-        <f>SUM(B2:B5)</f>
-        <v>0.30208333333333337</v>
-      </c>
+        <f>SUM(B2:B6)</f>
+        <v>0.38553240740740746</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>9.25</v>
+      </c>
+      <c r="G7">
+        <f>F7*100</f>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
